--- a/Group 5 Iteration 3/Plan Iteration 3.xlsx
+++ b/Group 5 Iteration 3/Plan Iteration 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineering\Desktop\Malefiz Group Project\Iteration 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FBE64A-8BF1-4B07-90AF-1DCF1B7E5490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAE490A-4C0B-44AB-9589-CCF24FCD3C1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Plan - BLANK" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="Type">'[2]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -124,12 +125,6 @@
     <t>Set up the grid</t>
   </si>
   <si>
-    <t>Putting up pieces</t>
-  </si>
-  <si>
-    <t>Saving the game</t>
-  </si>
-  <si>
     <t>Setting up barricade</t>
   </si>
   <si>
@@ -139,10 +134,28 @@
     <t>Mohammad/Tomal</t>
   </si>
   <si>
-    <t>#4: UCD - Saving the game</t>
-  </si>
-  <si>
     <t>#3: UCD - Moving a Barricade</t>
+  </si>
+  <si>
+    <t>#4: UCD - First move of the token</t>
+  </si>
+  <si>
+    <t>13th March</t>
+  </si>
+  <si>
+    <t>15th March</t>
+  </si>
+  <si>
+    <t>16th March</t>
+  </si>
+  <si>
+    <t>17th March</t>
+  </si>
+  <si>
+    <t>14th March</t>
+  </si>
+  <si>
+    <t>Moving up pieces</t>
   </si>
 </sst>
 </file>
@@ -686,10 +699,10 @@
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P23"/>
+  <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -850,12 +863,14 @@
     </row>
     <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
@@ -874,12 +889,14 @@
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>14</v>
       </c>
@@ -903,7 +920,9 @@
       <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="11" t="s">
         <v>14</v>
       </c>
@@ -927,7 +946,9 @@
       <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>14</v>
       </c>
@@ -951,7 +972,9 @@
       <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="E17" s="11" t="s">
         <v>14</v>
       </c>
@@ -975,7 +998,9 @@
       <c r="C19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>14</v>
       </c>
@@ -988,9 +1013,11 @@
         <v>27</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -998,12 +1025,14 @@
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1011,29 +1040,18 @@
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>

--- a/Group 5 Iteration 3/Plan Iteration 3.xlsx
+++ b/Group 5 Iteration 3/Plan Iteration 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineering\Desktop\Malefiz Group Project\Iteration 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dilhanbhagat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88391A7-2058-41BA-9B8F-E86ED9B3B0C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D497473A-2CF8-404C-9359-BA6E5DAC4072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Plan - BLANK" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <definedName name="Type">'[2]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -165,6 +164,9 @@
   </si>
   <si>
     <t>Finished</t>
+  </si>
+  <si>
+    <t>7th March</t>
   </si>
 </sst>
 </file>
@@ -711,25 +713,25 @@
   <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="15.625" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="3.375" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="24.125" customWidth="1"/>
-    <col min="12" max="12" width="29.375" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="2" customFormat="1" ht="21.95" customHeight="1">
+    <row r="1" spans="2:16" s="2" customFormat="1" ht="22" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,7 +752,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="2:16" s="2" customFormat="1" ht="21.95" customHeight="1">
+    <row r="2" spans="2:16" s="2" customFormat="1" ht="22" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -771,7 +773,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="2:16" ht="11.1" customHeight="1">
+    <row r="3" spans="2:16" ht="11" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -780,7 +782,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:16" ht="20" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -812,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:16" ht="20" customHeight="1">
       <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
@@ -836,7 +838,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:16" ht="20" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -865,7 +867,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:16" ht="20" customHeight="1">
       <c r="B8" s="14"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -874,7 +876,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:16" ht="20" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
@@ -891,7 +893,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:16" ht="20" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -900,7 +902,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:16" ht="20" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
@@ -919,7 +921,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:16" ht="20" customHeight="1">
       <c r="B12" s="14"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -928,7 +930,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:16" ht="20" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
@@ -945,7 +947,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:16" ht="20" customHeight="1">
       <c r="B14" s="14"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -954,7 +956,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:16" ht="20" customHeight="1">
       <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
@@ -965,13 +967,15 @@
         <v>36</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:16" ht="20" customHeight="1">
       <c r="B16" s="14"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -997,7 +1001,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:8" ht="20" customHeight="1">
       <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1023,7 +1027,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:8" ht="20" customHeight="1">
       <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1046,7 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:8" ht="20" customHeight="1">
       <c r="B21" s="14" t="s">
         <v>38</v>
       </c>
@@ -1057,7 +1061,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:8" ht="20" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
